--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aaa\python_dir\pythonProject\web自动化\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C689C06-5F5A-4C27-8D16-D8D622A96BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49BCAAC-62DC-48F5-B823-6D7161CA64C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="1416" windowWidth="10200" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="登录" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
   <si>
     <t>lisi</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,10 +87,6 @@
     <t>个人理财系统注册界面</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户wangwu1已存在</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -104,6 +100,45 @@
   </si>
   <si>
     <t>密码为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>lisi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊朗中央银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借记卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1234567891548796</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678915487967</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊拉克国民银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信用卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1234567890888888</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -156,12 +191,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -546,14 +590,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.88671875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="3" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
@@ -569,22 +614,25 @@
       <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1">
-        <v>123456</v>
+        <v>12345678</v>
       </c>
       <c r="C2" s="1">
-        <v>123456</v>
+        <v>12345678</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
@@ -601,7 +649,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
@@ -611,25 +659,31 @@
       <c r="B4" s="1">
         <v>123456</v>
       </c>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -640,12 +694,103 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE6C2DC6-7827-480F-BBE9-AD20D446F8AB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="21.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1">
+        <v>123456</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1">
+        <v>123456</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1">
+        <v>123456</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
